--- a/Test Data Driven/AI-Generated/Common/configureTestSuiteAndRun.xlsx
+++ b/Test Data Driven/AI-Generated/Common/configureTestSuiteAndRun.xlsx
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
   </cols>
@@ -469,21 +469,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cdc Test Run 5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9.6.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9.6.0</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
